--- a/biology/Botanique/Ravin_du_bois_de_la_Cambre/Ravin_du_bois_de_la_Cambre.xlsx
+++ b/biology/Botanique/Ravin_du_bois_de_la_Cambre/Ravin_du_bois_de_la_Cambre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le ravin du bois de la Cambre, que surplombe un imposant pont en roches appelé Pont Rustique[1], est une des deux principales attractions de la première partie[2] du bois de la Cambre, la seconde étant la pelouse des Anglais[3].
+Le ravin du bois de la Cambre, que surplombe un imposant pont en roches appelé Pont Rustique, est une des deux principales attractions de la première partie du bois de la Cambre, la seconde étant la pelouse des Anglais.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De forme quasi triangulaire, il  touche à l'allée des Amazones, au chemin du Pont Rustique, au chemin des Patineurs et, en passant sous le pont rustique[4], au chemin de l'Aube.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De forme quasi triangulaire, il  touche à l'allée des Amazones, au chemin du Pont Rustique, au chemin des Patineurs et, en passant sous le pont rustique, au chemin de l'Aube.
 </t>
         </is>
       </c>
